--- a/biology/Microbiologie/Nocardia/Nocardia.xlsx
+++ b/biology/Microbiologie/Nocardia/Nocardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nocardia est un genre de bactéries de la division des Actinobactéries et de la classe des Actinomycètes. Ces bactéries sont des bacilles à Gram positif[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nocardia est un genre de bactéries de la division des Actinobactéries et de la classe des Actinomycètes. Ces bactéries sont des bacilles à Gram positif.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t xml:space="preserve"> Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombreuses espèces saprophytes, surtout telluriques. 
 </t>
@@ -542,7 +556,9 @@
           <t>Pouvoir pathogène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques espèces du genre Nocardia peuvent provoquer des infections, notamment :
 Nocardia asteroides qui provoque assez rarement des infections pulmonaires pseudo-tuberculeuses surtout chez des individus atteints d'emphysème ou de bronchiectasies. On le retrouve également dans des abcès cérébraux.
@@ -576,14 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Filaments de longueur très variable, parfois très courts (bacilloformes), plusieurs espèces sont partiellement acido-résistantes (difficulté du diagnostic différentiel de la tuberculose en cas de nocardiose pulmonaire).
-Culture
-Développement lent (2 à 4 semaines) de colonies rugueuses, plissées, souvent pigmentées.
-Diagnostic
-Examen microscopique et culture. (Recherche des formes bifurquées).
-Traitement
-Pénicilline, sulfamidés et tétracyclines sont relativement actifs mais le traitement doit être prolongé et s'accompagner au besoin de drainage chirurgical.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filaments de longueur très variable, parfois très courts (bacilloformes), plusieurs espèces sont partiellement acido-résistantes (difficulté du diagnostic différentiel de la tuberculose en cas de nocardiose pulmonaire).
 </t>
         </is>
       </c>
@@ -609,17 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Caractères bactériologiques</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia Trevisan 1889[2]. L'espèce type est Nocardia asteroides (Eppinger 1891) Blanchard 1896[2].
-Synonymie
-Nocardia a pour synonyme[2] :
-Micropolyspora Lechevalier et al. 1961
-Étymologie
-L'étymologie de ce genre est la suivante : No.card’i.a. N.L. fem. n. Nocardia, nommé en l'honneur d'Edmond Nocard (1850-1903), un vétérinaire français qui a, le premier, isolé des membres de ce taxon[2].
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Développement lent (2 à 4 semaines) de colonies rugueuses, plissées, souvent pigmentées.
 </t>
         </is>
       </c>
@@ -645,12 +661,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Caractères bactériologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Examen microscopique et culture. (Recherche des formes bifurquées).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractères bactériologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pénicilline, sulfamidés et tétracyclines sont relativement actifs mais le traitement doit être prolongé et s'accompagner au besoin de drainage chirurgical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia Trevisan 1889. L'espèce type est Nocardia asteroides (Eppinger 1891) Blanchard 1896.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nocardia a pour synonyme :
+Micropolyspora Lechevalier et al. 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre est la suivante : No.card’i.a. N.L. fem. n. Nocardia, nommé en l'honneur d'Edmond Nocard (1850-1903), un vétérinaire français qui a, le premier, isolé des membres de ce taxon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (16 novembre 2023)[2] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (16 novembre 2023) :
 Nocardia abscessus Yassin et al. 2000
 Nocardia acididurans Sirireung et al. 2021
 Nocardia aciditolerans Golinska et al. 2013
@@ -781,19 +980,122 @@
 Nocardia yunnanensis Zhang et al. 2019
 Nocardia zapadnayensis Ozdemir-Kocak et al. 2016
 Nocardia zhihengii Huang et al. 2019
-Espèces non validées
-Selon la LPSN  (16 novembre 2023)[2], il y a aussi des espèces publiées mais non validées et qui ont un nom préféré mais non correct selon les critères de l'ICSP :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces non validées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (16 novembre 2023), il y a aussi des espèces publiées mais non validées et qui ont un nom préféré mais non correct selon les critères de l'ICSP :
 "Nocardia argentinensis" Cone et al. 1989
 "Nocardia boironii" Gilquin et al. 2016
 "Nocardia canicruria" Adams et McClung 1962
-"Nocardia capreola" (Higgens 1963) Pridham 1970
-Espèces synonymes
-Selon la LPSN  (16 novembre 2023)[2], de nombreuses espèces de Nocardia ont changé de nom voire de genre :
+"Nocardia capreola" (Higgens 1963) Pridham 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèces synonymes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (16 novembre 2023), de nombreuses espèces de Nocardia ont changé de nom voire de genre :
 "Nocardia aerocolonigenes" (Shinobu et Kawato 1960) Pridham 1970 a été renommé Lentzea aerocolonigenes (Labeda 1986 ex Shinobu et Kawato 1960) Nouioui et al. 2018
 Nocardia amarae Lechevalier et Lechevalier 1974 renommé Gordonia amarae corrig. (Lechevalier et Lechevalier 1974) Klatte et al. 1994
-Nocardia autotrophica (Takamiya et Tubaki 1956) Hirsch 1961 renommée Pseudonocardia autotrophica (Takamiya et Tubaki 1956) Warwick et al. 1994
-Espèces avec erreurs de nommage
-Selon la LPSN  (16 novembre 2023)[2], une espèce possédant un nom avec une faute d'orthographe a dû être renommée :
+Nocardia autotrophica (Takamiya et Tubaki 1956) Hirsch 1961 renommée Pseudonocardia autotrophica (Takamiya et Tubaki 1956) Warwick et al. 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Espèces avec erreurs de nommage</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (16 novembre 2023), une espèce possédant un nom avec une faute d'orthographe a dû être renommée :
 Nocardia bhagyanesis Vaddavalli et al. 2014 renommée Nocardia bhagyanarayanae corrig. Vaddavalli et al. 2014</t>
         </is>
       </c>
